--- a/biology/Botanique/Tous-les-mois/Tous-les-mois.xlsx
+++ b/biology/Botanique/Tous-les-mois/Tous-les-mois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canna
 Canna indica, le Canna ou appelé également Conflore à La Réunion, Toloman ou Balisier rouge, est une espèce de plantes à fleurs herbacées de la famille des Cannaceae. On l'appelle parfois Canna des Indes, mais ce nom est aussi utilisé pour plusieurs autres espèces de fleurs de l'ordre des Zingibérales[réf. nécessaire].
@@ -512,9 +524,11 @@
           <t>Noms vulgaires et vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : « Canna »[1],[2],[3], « Balisier à chapelet »[3], « Balisier d'Inde[3], « Conflore »[3], « Balisier »[2],[3], « Gonflore »[3], « Safran marron »[3], « Sissive[3], « Balisier comestible »[1], « Tous-les-mois »[1], « Balisier rouge »[2], « Canna comestible »[2], « Canna d'Inde »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : « Canna » « Balisier à chapelet », « Balisier d'Inde, « Conflore », « Balisier » « Gonflore », « Safran marron », « Sissive, « Balisier comestible », « Tous-les-mois », « Balisier rouge », « Canna comestible », « Canna d'Inde ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est originaire d'Amérique tropicale, en particulier des Caraïbes. Elle a été largement diffusée dans toutes les régions tropicales où elle peut facilement devenir subspontanée. Les archéologues ont découvert que le canna était cultivé au Pérou il y a 4 500 ans[réf. nécessaire].
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Canna indica est une plante vivace tropicale (zone USDA 10) pouvant mesurer entre 0,5 m et 2,5 m de haut selon la variété[réf. nécessaire].
 Les larges feuilles ressemblent à celles du bananier. Elles sont larges, vertes ou vert violet, avec des pétioles courts et une forme elliptique. Elles peuvent mesurer 30 à 60 cm de long et 10 à 25 cm de large, avec la base obtuse ou étroitement cunéiforme et l'apex brièvement acuminé ou fort[réf. nécessaire].
@@ -609,7 +627,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canna est une plante tropicale de croissance rapide. En zone tempérée, on la plante à la mi-mai (après les derniers gels) au soleil et au chaud et surtout à l'abri du vent. Le canna apprécie une terre riche et légère. On plante les rhizomes de 5 à 10 cm de profondeur tous les 30 à 50 cm selon leur hauteur. Donner régulièrement de l'engrais en période de croissance[réf. nécessaire].
 La plante fleurit de juillet jusqu'aux premiers gels[réf. nécessaire].
@@ -643,15 +663,52 @@
           <t>Utilisation alimentaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En Europe, le canna est surtout utilisé comme plante ornementale dans les jardins, tandis qu'en Amérique latine, il est principalement cultivé pour ses rhizomes, qui sont importants pour l'alimentation humaine et l'agro-industrie[réf. nécessaire].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, le canna est surtout utilisé comme plante ornementale dans les jardins, tandis qu'en Amérique latine, il est principalement cultivé pour ses rhizomes, qui sont importants pour l'alimentation humaine et l'agro-industrie[réf. nécessaire].
 Les rhizomes de Canna indica (achira) mesurent jusqu'à 60 centimètres de long et sont comestibles. Ils peuvent être mangés crus, mais sont habituellement cuits au four. Cuits, les rhizomes deviennent translucides, mucilagineux et sucrés. La fécule appelée Achira ou Sagu (comparable à celle de l’arrow-root) est produite en broyant ou en pilant les racines et en les trempant dans l'eau puis en séparant les granules d'amidon des fibres dans les racines. Les gros granules d'amidon de Canna indica sont également translucides[réf. nécessaire].
 L'amidon est facile à digérer et la farine est utilisée pour faire du pain, des biscuits, des gâteaux et des nouilles. Au Venezuela et en Martinique (où on l'appelle toloman probablement en référence au département Colombien de Tolima connu pour sa production de fécule), la fécule est utilisée pour préparer un atol (boisson) au pouvoir nutritif élevé pour les enfants après le sevrage, et pour les personnes âgées et les convalescents. Les rhizomes d'Achira sont également consommés rôtis ou cuits. En décoction, les racines sont utilisées comme diurétiques et les feuilles comme cicatrisant[réf. nécessaire].
 Les Espagnols ont remarqué l'achira en 1549 quand il a été cité comme l'une des quatre plantes-racines cultivées pour la nourriture par les habitants de la vallée de Chuquimayo (province de Jaén) au Pérou. Les trois autres étaient la patate douce (Ipomoea batatas), le manioc (Manihot esculenta) et la Arracacha (Arracacia xanthorrhiza). Aujourd'hui, Achira est rarement cultivé pour la nourriture, bien que dans les années 1960, il était encore une culture importante dans la province de Paruro sur la rivière supérieure Apurimac près de Cusco. Là, à des altitudes allant jusqu'à 2 600 mètres (8 500 pieds), achira est cultivé et récolté, en particulier pour être mangé pendant le Festival de Corpus Christi en mai ou en juin. Les rhizomes d'achira sont enveloppés de feuilles d'achira et placés dans une fosse avec des roches chauffées. La fosse est ensuite remplie de terre et l'achira est lentement cuite sous terre[réf. nécessaire]. 
 Les rhizomes, les tiges et les feuilles servent également de fourrage pour le bétail[réf. nécessaire].
-Autres utilisations
-Des feuilles fraîchement coupées sont utilisées sur les brûlures pour rafraîchir et dissiper la chaleur de la peau brûlée[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tous-les-mois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tous-les-mois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation alimentaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres utilisations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Des feuilles fraîchement coupées sont utilisées sur les brûlures pour rafraîchir et dissiper la chaleur de la peau brûlée[réf. nécessaire].
 Les feuilles sont également utilisées comme un type d'emballage naturel pour envelopper des aliments typiques, similaires aux tamales au goût sucré, connus sous le nom de « chymobolites[réf. nécessaire] ».
 Les graines sont utilisées comme perles en joaillerie et constituent les éléments mobiles d'un instrument de musique traditionnel de la Réunion, le kayamb. On les utilise également pour faire des hochets ou des maracas[réf. nécessaire].
 L'histoire raconte que pendant la mutinerie indienne du XIXe siècle, les soldats ont utilisé les graines de Canna indica quand ils ont manqué de plombs pour leurs fusils[réf. nécessaire].
@@ -659,43 +716,114 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Tous-les-mois</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tous-les-mois</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours des trois dernières décennies du XXe siècle, les espèces de Canna ont été classées par deux taxonomistes différents, Paulus Johannes Maria Maas des Pays-Bas et Nobuyuki Tanaka du Japon. Inévitablement, il existe des différences dans leurs catégorisations[réf. nécessaire].
-Liste des taxons de rang inférieur
-Liste des variétés selon GBIF       (17 juin 2021)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tous-les-mois</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tous-les-mois</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des taxons de rang inférieur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Liste des variétés selon GBIF       (17 juin 2021) :
 Canna lutea var. aurantiaca Kraenzl., 1912
 Canna lutea var. aurantiaca Petersen, 1890
 Canna lutea var. lutea
 Canna lutea var. maculata Petersen, 1890
 Canna lutea var. pallida Kraenzl., 1912
-Canna lutea var. pallida Petersen, 1890
-Synonymes
-Selon Plants of the World online (POWO)                (17 juin 2021)[4], Canna lutea L. présente 116 synonymes :
+Canna lutea var. pallida Petersen, 1890</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tous-les-mois</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tous-les-mois</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (17 juin 2021), Canna lutea L. présente 116 synonymes :
 Canna achiras Gillies ex D.Don
 Canna altensteinii Bouché
 Canna amabilis T.Koyama &amp; Nob.Tanaka
